--- a/Bug-reports/Баг-репорт 2.xlsx
+++ b/Bug-reports/Баг-репорт 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logvi\CV\QA-work\Bug-reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D290A8BD-45D6-4F4C-B64A-0F5DC24E89A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC4EE71-9879-4964-B132-F4D624107592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="240" windowWidth="29040" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -959,13 +959,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1000"/>
+  <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
@@ -980,7 +980,7 @@
     <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:15" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:15" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="51" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:15" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:15" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:15" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1644,7 +1644,7 @@
       <c r="N30" s="27"/>
       <c r="O30" s="27"/>
     </row>
-    <row r="31" spans="1:15" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="N31" s="27"/>
       <c r="O31" s="27"/>
     </row>
-    <row r="32" spans="1:15" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="102" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="N32" s="27"/>
       <c r="O32" s="27"/>
     </row>
-    <row r="33" spans="1:15" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1730,7 +1730,7 @@
       <c r="N33" s="27"/>
       <c r="O33" s="27"/>
     </row>
-    <row r="34" spans="1:15" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="102" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1756,7 +1756,7 @@
       <c r="N34" s="27"/>
       <c r="O34" s="27"/>
     </row>
-    <row r="35" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="N35" s="27"/>
       <c r="O35" s="27"/>
     </row>
-    <row r="36" spans="1:15" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1812,7 +1812,7 @@
       <c r="N36" s="29"/>
       <c r="O36" s="27"/>
     </row>
-    <row r="37" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -1842,7 +1842,7 @@
       <c r="N37" s="30"/>
       <c r="O37" s="27"/>
     </row>
-    <row r="38" spans="1:15" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="N38" s="27"/>
       <c r="O38" s="27"/>
     </row>
-    <row r="39" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="72" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:15" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:15" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="51" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:15" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:15" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="51" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2122,7 +2122,7 @@
       <c r="G51" s="10"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="G52" s="10"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -2146,7 +2146,7 @@
       <c r="G53" s="10"/>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -2158,7 +2158,7 @@
       <c r="G54" s="10"/>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -2170,7 +2170,7 @@
       <c r="G55" s="10"/>
       <c r="H55" s="8"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="G56" s="10"/>
       <c r="H56" s="8"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="G57" s="10"/>
       <c r="H57" s="8"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -2206,7 +2206,7 @@
       <c r="G58" s="10"/>
       <c r="H58" s="8"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -2218,7 +2218,7 @@
       <c r="G59" s="10"/>
       <c r="H59" s="8"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -2230,7 +2230,7 @@
       <c r="G60" s="10"/>
       <c r="H60" s="8"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="G61" s="10"/>
       <c r="H61" s="8"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -2254,7 +2254,7 @@
       <c r="G62" s="10"/>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -2266,7 +2266,7 @@
       <c r="G63" s="10"/>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="G64" s="10"/>
       <c r="H64" s="8"/>
     </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -2290,7 +2290,7 @@
       <c r="G65" s="10"/>
       <c r="H65" s="8"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -2302,7 +2302,7 @@
       <c r="G66" s="10"/>
       <c r="H66" s="8"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -2314,7 +2314,7 @@
       <c r="G67" s="10"/>
       <c r="H67" s="8"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -2326,7 +2326,7 @@
       <c r="G68" s="10"/>
       <c r="H68" s="8"/>
     </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -2338,7 +2338,7 @@
       <c r="G69" s="10"/>
       <c r="H69" s="8"/>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="G70" s="10"/>
       <c r="H70" s="8"/>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="G71" s="10"/>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -2374,7 +2374,7 @@
       <c r="G72" s="10"/>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -2386,7 +2386,7 @@
       <c r="G73" s="10"/>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -2398,7 +2398,7 @@
       <c r="G74" s="10"/>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -2410,7 +2410,7 @@
       <c r="G75" s="10"/>
       <c r="H75" s="8"/>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="G76" s="10"/>
       <c r="H76" s="8"/>
     </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="G77" s="10"/>
       <c r="H77" s="8"/>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -2446,7 +2446,7 @@
       <c r="G78" s="10"/>
       <c r="H78" s="8"/>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -2458,7 +2458,7 @@
       <c r="G79" s="10"/>
       <c r="H79" s="8"/>
     </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -2470,7 +2470,7 @@
       <c r="G80" s="10"/>
       <c r="H80" s="8"/>
     </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -2482,7 +2482,7 @@
       <c r="G81" s="10"/>
       <c r="H81" s="8"/>
     </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -2494,7 +2494,7 @@
       <c r="G82" s="10"/>
       <c r="H82" s="8"/>
     </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -2506,7 +2506,7 @@
       <c r="G83" s="10"/>
       <c r="H83" s="8"/>
     </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -2518,7 +2518,7 @@
       <c r="G84" s="10"/>
       <c r="H84" s="8"/>
     </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="G85" s="10"/>
       <c r="H85" s="8"/>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="G86" s="10"/>
       <c r="H86" s="8"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -2554,7 +2554,7 @@
       <c r="G87" s="10"/>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -2566,7 +2566,7 @@
       <c r="G88" s="10"/>
       <c r="H88" s="8"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -2578,7 +2578,7 @@
       <c r="G89" s="10"/>
       <c r="H89" s="8"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -2590,7 +2590,7 @@
       <c r="G90" s="10"/>
       <c r="H90" s="8"/>
     </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -2602,7 +2602,7 @@
       <c r="G91" s="10"/>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -2614,7 +2614,7 @@
       <c r="G92" s="10"/>
       <c r="H92" s="8"/>
     </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -2626,7 +2626,7 @@
       <c r="G93" s="10"/>
       <c r="H93" s="8"/>
     </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -2638,7 +2638,7 @@
       <c r="G94" s="10"/>
       <c r="H94" s="8"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -2650,7 +2650,7 @@
       <c r="G95" s="10"/>
       <c r="H95" s="8"/>
     </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="G96" s="10"/>
       <c r="H96" s="8"/>
     </row>
-    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="G97" s="10"/>
       <c r="H97" s="8"/>
     </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="G98" s="10"/>
       <c r="H98" s="8"/>
     </row>
-    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -2698,7 +2698,7 @@
       <c r="G99" s="10"/>
       <c r="H99" s="8"/>
     </row>
-    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -2710,7 +2710,7 @@
       <c r="G100" s="10"/>
       <c r="H100" s="8"/>
     </row>
-    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -2722,7 +2722,7 @@
       <c r="G101" s="10"/>
       <c r="H101" s="8"/>
     </row>
-    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
       <c r="B102" s="22"/>
       <c r="C102" s="23"/>
@@ -2731,7 +2731,7 @@
       <c r="F102" s="25"/>
       <c r="G102" s="22"/>
     </row>
-    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="23"/>
@@ -2740,7 +2740,7 @@
       <c r="F103" s="25"/>
       <c r="G103" s="22"/>
     </row>
-    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="21"/>
       <c r="B104" s="22"/>
       <c r="C104" s="23"/>
@@ -2749,7 +2749,7 @@
       <c r="F104" s="25"/>
       <c r="G104" s="22"/>
     </row>
-    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="21"/>
       <c r="B105" s="22"/>
       <c r="C105" s="23"/>
@@ -2758,7 +2758,7 @@
       <c r="F105" s="25"/>
       <c r="G105" s="22"/>
     </row>
-    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="21"/>
       <c r="B106" s="22"/>
       <c r="C106" s="23"/>
@@ -2767,7 +2767,7 @@
       <c r="F106" s="25"/>
       <c r="G106" s="22"/>
     </row>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="21"/>
       <c r="B107" s="22"/>
       <c r="C107" s="23"/>
@@ -2776,7 +2776,7 @@
       <c r="F107" s="25"/>
       <c r="G107" s="22"/>
     </row>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="21"/>
       <c r="B108" s="23"/>
       <c r="C108" s="23"/>
@@ -2785,7 +2785,7 @@
       <c r="F108" s="25"/>
       <c r="G108" s="22"/>
     </row>
-    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="21"/>
       <c r="B109" s="23"/>
       <c r="C109" s="23"/>
@@ -2794,7 +2794,7 @@
       <c r="F109" s="25"/>
       <c r="G109" s="22"/>
     </row>
-    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="21"/>
       <c r="B110" s="23"/>
       <c r="C110" s="23"/>
@@ -2803,7 +2803,7 @@
       <c r="F110" s="25"/>
       <c r="G110" s="22"/>
     </row>
-    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="21"/>
       <c r="B111" s="23"/>
       <c r="C111" s="23"/>
@@ -2812,7 +2812,7 @@
       <c r="F111" s="25"/>
       <c r="G111" s="22"/>
     </row>
-    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="21"/>
       <c r="B112" s="22"/>
       <c r="C112" s="23"/>
@@ -2821,7 +2821,7 @@
       <c r="F112" s="25"/>
       <c r="G112" s="22"/>
     </row>
-    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="21"/>
       <c r="B113" s="22"/>
       <c r="C113" s="23"/>
@@ -2830,7 +2830,7 @@
       <c r="F113" s="25"/>
       <c r="G113" s="22"/>
     </row>
-    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="21"/>
       <c r="B114" s="22"/>
       <c r="C114" s="23"/>
@@ -2839,7 +2839,7 @@
       <c r="F114" s="25"/>
       <c r="G114" s="22"/>
     </row>
-    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="21"/>
       <c r="B115" s="22"/>
       <c r="C115" s="23"/>
@@ -2848,7 +2848,7 @@
       <c r="F115" s="25"/>
       <c r="G115" s="22"/>
     </row>
-    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="21"/>
       <c r="B116" s="22"/>
       <c r="C116" s="23"/>
@@ -2857,7 +2857,7 @@
       <c r="F116" s="25"/>
       <c r="G116" s="22"/>
     </row>
-    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="21"/>
       <c r="B117" s="22"/>
       <c r="C117" s="23"/>
@@ -2866,7 +2866,7 @@
       <c r="F117" s="25"/>
       <c r="G117" s="22"/>
     </row>
-    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="21"/>
       <c r="B118" s="22"/>
       <c r="C118" s="23"/>
@@ -2875,7 +2875,7 @@
       <c r="F118" s="25"/>
       <c r="G118" s="22"/>
     </row>
-    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="21"/>
       <c r="B119" s="22"/>
       <c r="C119" s="23"/>
@@ -2884,7 +2884,7 @@
       <c r="F119" s="25"/>
       <c r="G119" s="22"/>
     </row>
-    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="21"/>
       <c r="B120" s="23"/>
       <c r="C120" s="23"/>
@@ -2893,7 +2893,7 @@
       <c r="F120" s="25"/>
       <c r="G120" s="22"/>
     </row>
-    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="21"/>
       <c r="B121" s="23"/>
       <c r="C121" s="23"/>
@@ -2902,7 +2902,7 @@
       <c r="F121" s="25"/>
       <c r="G121" s="22"/>
     </row>
-    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="21"/>
       <c r="B122" s="23"/>
       <c r="C122" s="23"/>
@@ -2911,7 +2911,7 @@
       <c r="F122" s="25"/>
       <c r="G122" s="22"/>
     </row>
-    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="21"/>
       <c r="B123" s="23"/>
       <c r="C123" s="23"/>
@@ -2920,7 +2920,7 @@
       <c r="F123" s="25"/>
       <c r="G123" s="22"/>
     </row>
-    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="23"/>
@@ -2929,7 +2929,7 @@
       <c r="F124" s="25"/>
       <c r="G124" s="22"/>
     </row>
-    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="21"/>
       <c r="B125" s="22"/>
       <c r="C125" s="23"/>
@@ -2938,7 +2938,7 @@
       <c r="F125" s="25"/>
       <c r="G125" s="22"/>
     </row>
-    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="21"/>
       <c r="B126" s="22"/>
       <c r="C126" s="23"/>
@@ -2947,7 +2947,7 @@
       <c r="F126" s="25"/>
       <c r="G126" s="22"/>
     </row>
-    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="21"/>
       <c r="B127" s="22"/>
       <c r="C127" s="23"/>
@@ -2956,7 +2956,7 @@
       <c r="F127" s="25"/>
       <c r="G127" s="22"/>
     </row>
-    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="21"/>
       <c r="B128" s="22"/>
       <c r="C128" s="23"/>
@@ -2965,7 +2965,7 @@
       <c r="F128" s="25"/>
       <c r="G128" s="22"/>
     </row>
-    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="21"/>
       <c r="B129" s="22"/>
       <c r="C129" s="23"/>
@@ -2974,7 +2974,7 @@
       <c r="F129" s="25"/>
       <c r="G129" s="22"/>
     </row>
-    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="21"/>
       <c r="B130" s="22"/>
       <c r="C130" s="23"/>
@@ -2983,7 +2983,7 @@
       <c r="F130" s="25"/>
       <c r="G130" s="22"/>
     </row>
-    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="21"/>
       <c r="B131" s="22"/>
       <c r="C131" s="23"/>
@@ -2992,7 +2992,7 @@
       <c r="F131" s="25"/>
       <c r="G131" s="22"/>
     </row>
-    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="21"/>
       <c r="B132" s="23"/>
       <c r="C132" s="23"/>
@@ -3001,7 +3001,7 @@
       <c r="F132" s="25"/>
       <c r="G132" s="22"/>
     </row>
-    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="21"/>
       <c r="B133" s="23"/>
       <c r="C133" s="23"/>
@@ -3010,7 +3010,7 @@
       <c r="F133" s="25"/>
       <c r="G133" s="22"/>
     </row>
-    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="21"/>
       <c r="B134" s="23"/>
       <c r="C134" s="23"/>
@@ -3019,7 +3019,7 @@
       <c r="F134" s="25"/>
       <c r="G134" s="22"/>
     </row>
-    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="21"/>
       <c r="B135" s="23"/>
       <c r="C135" s="23"/>
@@ -3028,7 +3028,7 @@
       <c r="F135" s="25"/>
       <c r="G135" s="22"/>
     </row>
-    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="21"/>
       <c r="B136" s="22"/>
       <c r="C136" s="23"/>
@@ -3037,7 +3037,7 @@
       <c r="F136" s="25"/>
       <c r="G136" s="22"/>
     </row>
-    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="21"/>
       <c r="B137" s="22"/>
       <c r="C137" s="23"/>
@@ -3046,7 +3046,7 @@
       <c r="F137" s="25"/>
       <c r="G137" s="22"/>
     </row>
-    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="21"/>
       <c r="B138" s="22"/>
       <c r="C138" s="23"/>
@@ -3055,7 +3055,7 @@
       <c r="F138" s="25"/>
       <c r="G138" s="22"/>
     </row>
-    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="21"/>
       <c r="B139" s="22"/>
       <c r="C139" s="23"/>
@@ -3064,7 +3064,7 @@
       <c r="F139" s="25"/>
       <c r="G139" s="22"/>
     </row>
-    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="21"/>
       <c r="B140" s="22"/>
       <c r="C140" s="23"/>
@@ -3073,7 +3073,7 @@
       <c r="F140" s="25"/>
       <c r="G140" s="22"/>
     </row>
-    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="21"/>
       <c r="B141" s="22"/>
       <c r="C141" s="23"/>
@@ -3082,7 +3082,7 @@
       <c r="F141" s="25"/>
       <c r="G141" s="22"/>
     </row>
-    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="21"/>
       <c r="B142" s="22"/>
       <c r="C142" s="23"/>
@@ -3091,7 +3091,7 @@
       <c r="F142" s="25"/>
       <c r="G142" s="22"/>
     </row>
-    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="21"/>
       <c r="B143" s="22"/>
       <c r="C143" s="23"/>
@@ -3100,7 +3100,7 @@
       <c r="F143" s="25"/>
       <c r="G143" s="22"/>
     </row>
-    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="21"/>
       <c r="B144" s="23"/>
       <c r="C144" s="23"/>
@@ -3109,7 +3109,7 @@
       <c r="F144" s="25"/>
       <c r="G144" s="22"/>
     </row>
-    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="21"/>
       <c r="B145" s="23"/>
       <c r="C145" s="23"/>
@@ -3118,7 +3118,7 @@
       <c r="F145" s="25"/>
       <c r="G145" s="22"/>
     </row>
-    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="21"/>
       <c r="B146" s="23"/>
       <c r="C146" s="23"/>
@@ -3127,7 +3127,7 @@
       <c r="F146" s="25"/>
       <c r="G146" s="22"/>
     </row>
-    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="21"/>
       <c r="B147" s="23"/>
       <c r="C147" s="23"/>
@@ -3136,7 +3136,7 @@
       <c r="F147" s="25"/>
       <c r="G147" s="22"/>
     </row>
-    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="21"/>
       <c r="B148" s="22"/>
       <c r="C148" s="23"/>
@@ -3145,7 +3145,7 @@
       <c r="F148" s="25"/>
       <c r="G148" s="22"/>
     </row>
-    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="21"/>
       <c r="B149" s="22"/>
       <c r="C149" s="23"/>
@@ -3154,7 +3154,7 @@
       <c r="F149" s="25"/>
       <c r="G149" s="22"/>
     </row>
-    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="21"/>
       <c r="B150" s="22"/>
       <c r="C150" s="23"/>
@@ -3163,7 +3163,7 @@
       <c r="F150" s="25"/>
       <c r="G150" s="22"/>
     </row>
-    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="21"/>
       <c r="B151" s="22"/>
       <c r="C151" s="23"/>
@@ -3172,7 +3172,7 @@
       <c r="F151" s="25"/>
       <c r="G151" s="22"/>
     </row>
-    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="21"/>
       <c r="B152" s="22"/>
       <c r="C152" s="23"/>
@@ -3181,7 +3181,7 @@
       <c r="F152" s="25"/>
       <c r="G152" s="22"/>
     </row>
-    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="21"/>
       <c r="B153" s="22"/>
       <c r="C153" s="23"/>
@@ -3190,7 +3190,7 @@
       <c r="F153" s="25"/>
       <c r="G153" s="22"/>
     </row>
-    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="21"/>
       <c r="B154" s="22"/>
       <c r="C154" s="23"/>
@@ -3199,7 +3199,7 @@
       <c r="F154" s="25"/>
       <c r="G154" s="22"/>
     </row>
-    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="21"/>
       <c r="B155" s="22"/>
       <c r="C155" s="23"/>
@@ -3208,7 +3208,7 @@
       <c r="F155" s="25"/>
       <c r="G155" s="22"/>
     </row>
-    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="21"/>
       <c r="B156" s="23"/>
       <c r="C156" s="23"/>
@@ -3217,7 +3217,7 @@
       <c r="F156" s="25"/>
       <c r="G156" s="22"/>
     </row>
-    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="21"/>
       <c r="B157" s="23"/>
       <c r="C157" s="23"/>
@@ -3226,7 +3226,7 @@
       <c r="F157" s="25"/>
       <c r="G157" s="22"/>
     </row>
-    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="21"/>
       <c r="B158" s="23"/>
       <c r="C158" s="23"/>
@@ -3235,7 +3235,7 @@
       <c r="F158" s="25"/>
       <c r="G158" s="22"/>
     </row>
-    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="21"/>
       <c r="B159" s="23"/>
       <c r="C159" s="23"/>
@@ -3244,7 +3244,7 @@
       <c r="F159" s="25"/>
       <c r="G159" s="22"/>
     </row>
-    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="21"/>
       <c r="B160" s="22"/>
       <c r="C160" s="23"/>
@@ -3253,7 +3253,7 @@
       <c r="F160" s="25"/>
       <c r="G160" s="22"/>
     </row>
-    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="21"/>
       <c r="B161" s="22"/>
       <c r="C161" s="23"/>
@@ -3262,7 +3262,7 @@
       <c r="F161" s="25"/>
       <c r="G161" s="22"/>
     </row>
-    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="21"/>
       <c r="B162" s="22"/>
       <c r="C162" s="23"/>
@@ -3271,7 +3271,7 @@
       <c r="F162" s="25"/>
       <c r="G162" s="22"/>
     </row>
-    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="21"/>
       <c r="B163" s="22"/>
       <c r="C163" s="23"/>
@@ -3280,7 +3280,7 @@
       <c r="F163" s="25"/>
       <c r="G163" s="22"/>
     </row>
-    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="21"/>
       <c r="B164" s="22"/>
       <c r="C164" s="23"/>
@@ -3289,7 +3289,7 @@
       <c r="F164" s="25"/>
       <c r="G164" s="22"/>
     </row>
-    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="21"/>
       <c r="B165" s="22"/>
       <c r="C165" s="23"/>
@@ -3298,7 +3298,7 @@
       <c r="F165" s="25"/>
       <c r="G165" s="22"/>
     </row>
-    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="21"/>
       <c r="B166" s="22"/>
       <c r="C166" s="23"/>
@@ -3307,7 +3307,7 @@
       <c r="F166" s="25"/>
       <c r="G166" s="22"/>
     </row>
-    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="21"/>
       <c r="B167" s="22"/>
       <c r="C167" s="23"/>
@@ -3316,7 +3316,7 @@
       <c r="F167" s="25"/>
       <c r="G167" s="22"/>
     </row>
-    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="21"/>
       <c r="B168" s="23"/>
       <c r="C168" s="23"/>
@@ -3325,7 +3325,7 @@
       <c r="F168" s="25"/>
       <c r="G168" s="22"/>
     </row>
-    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="21"/>
       <c r="B169" s="23"/>
       <c r="C169" s="23"/>
@@ -3334,7 +3334,7 @@
       <c r="F169" s="25"/>
       <c r="G169" s="22"/>
     </row>
-    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="21"/>
       <c r="B170" s="23"/>
       <c r="C170" s="23"/>
@@ -3343,7 +3343,7 @@
       <c r="F170" s="25"/>
       <c r="G170" s="22"/>
     </row>
-    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="21"/>
       <c r="B171" s="23"/>
       <c r="C171" s="23"/>
@@ -3352,7 +3352,7 @@
       <c r="F171" s="25"/>
       <c r="G171" s="22"/>
     </row>
-    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="21"/>
       <c r="B172" s="22"/>
       <c r="C172" s="23"/>
@@ -3361,7 +3361,7 @@
       <c r="F172" s="25"/>
       <c r="G172" s="22"/>
     </row>
-    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="21"/>
       <c r="B173" s="22"/>
       <c r="C173" s="23"/>
@@ -3370,7 +3370,7 @@
       <c r="F173" s="25"/>
       <c r="G173" s="22"/>
     </row>
-    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="21"/>
       <c r="B174" s="22"/>
       <c r="C174" s="23"/>
@@ -3379,7 +3379,7 @@
       <c r="F174" s="25"/>
       <c r="G174" s="22"/>
     </row>
-    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="21"/>
       <c r="B175" s="22"/>
       <c r="C175" s="23"/>
@@ -3388,7 +3388,7 @@
       <c r="F175" s="25"/>
       <c r="G175" s="22"/>
     </row>
-    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="21"/>
       <c r="B176" s="22"/>
       <c r="C176" s="23"/>
@@ -3397,7 +3397,7 @@
       <c r="F176" s="25"/>
       <c r="G176" s="22"/>
     </row>
-    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="21"/>
       <c r="B177" s="22"/>
       <c r="C177" s="23"/>
@@ -3406,7 +3406,7 @@
       <c r="F177" s="25"/>
       <c r="G177" s="22"/>
     </row>
-    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="21"/>
       <c r="B178" s="22"/>
       <c r="C178" s="23"/>
@@ -3415,7 +3415,7 @@
       <c r="F178" s="25"/>
       <c r="G178" s="22"/>
     </row>
-    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="21"/>
       <c r="B179" s="22"/>
       <c r="C179" s="23"/>
@@ -3424,7 +3424,7 @@
       <c r="F179" s="25"/>
       <c r="G179" s="22"/>
     </row>
-    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="21"/>
       <c r="B180" s="23"/>
       <c r="C180" s="23"/>
@@ -3433,7 +3433,7 @@
       <c r="F180" s="25"/>
       <c r="G180" s="22"/>
     </row>
-    <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="21"/>
       <c r="B181" s="23"/>
       <c r="C181" s="23"/>
@@ -3442,7 +3442,7 @@
       <c r="F181" s="25"/>
       <c r="G181" s="22"/>
     </row>
-    <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="21"/>
       <c r="B182" s="23"/>
       <c r="C182" s="23"/>
@@ -3451,7 +3451,7 @@
       <c r="F182" s="25"/>
       <c r="G182" s="22"/>
     </row>
-    <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="21"/>
       <c r="B183" s="23"/>
       <c r="C183" s="23"/>
@@ -3460,7 +3460,7 @@
       <c r="F183" s="25"/>
       <c r="G183" s="22"/>
     </row>
-    <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="21"/>
       <c r="B184" s="22"/>
       <c r="C184" s="23"/>
@@ -3469,7 +3469,7 @@
       <c r="F184" s="25"/>
       <c r="G184" s="22"/>
     </row>
-    <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="21"/>
       <c r="B185" s="22"/>
       <c r="C185" s="23"/>
@@ -3478,7 +3478,7 @@
       <c r="F185" s="25"/>
       <c r="G185" s="22"/>
     </row>
-    <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="21"/>
       <c r="B186" s="22"/>
       <c r="C186" s="23"/>
@@ -3487,7 +3487,7 @@
       <c r="F186" s="25"/>
       <c r="G186" s="22"/>
     </row>
-    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="21"/>
       <c r="B187" s="22"/>
       <c r="C187" s="23"/>
@@ -3496,7 +3496,7 @@
       <c r="F187" s="25"/>
       <c r="G187" s="22"/>
     </row>
-    <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="21"/>
       <c r="B188" s="22"/>
       <c r="C188" s="23"/>
@@ -3505,7 +3505,7 @@
       <c r="F188" s="25"/>
       <c r="G188" s="22"/>
     </row>
-    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="21"/>
       <c r="B189" s="22"/>
       <c r="C189" s="23"/>
@@ -3514,7 +3514,7 @@
       <c r="F189" s="25"/>
       <c r="G189" s="22"/>
     </row>
-    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="21"/>
       <c r="B190" s="22"/>
       <c r="C190" s="23"/>
@@ -3523,7 +3523,7 @@
       <c r="F190" s="25"/>
       <c r="G190" s="22"/>
     </row>
-    <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="21"/>
       <c r="B191" s="22"/>
       <c r="C191" s="23"/>
@@ -3532,7 +3532,7 @@
       <c r="F191" s="25"/>
       <c r="G191" s="22"/>
     </row>
-    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="21"/>
       <c r="B192" s="23"/>
       <c r="C192" s="23"/>
@@ -3541,7 +3541,7 @@
       <c r="F192" s="25"/>
       <c r="G192" s="22"/>
     </row>
-    <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="21"/>
       <c r="B193" s="23"/>
       <c r="C193" s="23"/>
@@ -3550,7 +3550,7 @@
       <c r="F193" s="25"/>
       <c r="G193" s="22"/>
     </row>
-    <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="21"/>
       <c r="B194" s="23"/>
       <c r="C194" s="23"/>
@@ -3559,7 +3559,7 @@
       <c r="F194" s="25"/>
       <c r="G194" s="22"/>
     </row>
-    <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="21"/>
       <c r="B195" s="23"/>
       <c r="C195" s="23"/>
@@ -3568,7 +3568,7 @@
       <c r="F195" s="25"/>
       <c r="G195" s="22"/>
     </row>
-    <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="21"/>
       <c r="B196" s="22"/>
       <c r="C196" s="23"/>
@@ -3577,7 +3577,7 @@
       <c r="F196" s="25"/>
       <c r="G196" s="22"/>
     </row>
-    <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="21"/>
       <c r="B197" s="22"/>
       <c r="C197" s="23"/>
@@ -3586,7 +3586,7 @@
       <c r="F197" s="25"/>
       <c r="G197" s="22"/>
     </row>
-    <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="21"/>
       <c r="B198" s="22"/>
       <c r="C198" s="23"/>
@@ -3595,7 +3595,7 @@
       <c r="F198" s="25"/>
       <c r="G198" s="22"/>
     </row>
-    <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="21"/>
       <c r="B199" s="22"/>
       <c r="C199" s="23"/>
@@ -3604,7 +3604,7 @@
       <c r="F199" s="25"/>
       <c r="G199" s="22"/>
     </row>
-    <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="21"/>
       <c r="B200" s="22"/>
       <c r="C200" s="23"/>
@@ -3613,7 +3613,7 @@
       <c r="F200" s="25"/>
       <c r="G200" s="22"/>
     </row>
-    <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="21"/>
       <c r="B201" s="22"/>
       <c r="C201" s="23"/>
@@ -3622,7 +3622,7 @@
       <c r="F201" s="25"/>
       <c r="G201" s="22"/>
     </row>
-    <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="21"/>
       <c r="B202" s="22"/>
       <c r="C202" s="23"/>
@@ -3631,7 +3631,7 @@
       <c r="F202" s="25"/>
       <c r="G202" s="22"/>
     </row>
-    <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="21"/>
       <c r="B203" s="22"/>
       <c r="C203" s="23"/>
@@ -3640,7 +3640,7 @@
       <c r="F203" s="25"/>
       <c r="G203" s="22"/>
     </row>
-    <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="21"/>
       <c r="B204" s="23"/>
       <c r="C204" s="23"/>
@@ -3649,7 +3649,7 @@
       <c r="F204" s="25"/>
       <c r="G204" s="22"/>
     </row>
-    <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="21"/>
       <c r="B205" s="23"/>
       <c r="C205" s="23"/>
@@ -3658,7 +3658,7 @@
       <c r="F205" s="25"/>
       <c r="G205" s="22"/>
     </row>
-    <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="21"/>
       <c r="B206" s="23"/>
       <c r="C206" s="23"/>
@@ -3667,7 +3667,7 @@
       <c r="F206" s="25"/>
       <c r="G206" s="22"/>
     </row>
-    <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="21"/>
       <c r="B207" s="23"/>
       <c r="C207" s="23"/>
@@ -3676,7 +3676,7 @@
       <c r="F207" s="25"/>
       <c r="G207" s="22"/>
     </row>
-    <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="21"/>
       <c r="B208" s="22"/>
       <c r="C208" s="23"/>
@@ -3685,7 +3685,7 @@
       <c r="F208" s="25"/>
       <c r="G208" s="22"/>
     </row>
-    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="21"/>
       <c r="B209" s="22"/>
       <c r="C209" s="23"/>
@@ -3694,7 +3694,7 @@
       <c r="F209" s="25"/>
       <c r="G209" s="22"/>
     </row>
-    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="21"/>
       <c r="B210" s="22"/>
       <c r="C210" s="23"/>
@@ -3703,7 +3703,7 @@
       <c r="F210" s="25"/>
       <c r="G210" s="22"/>
     </row>
-    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="21"/>
       <c r="B211" s="22"/>
       <c r="C211" s="23"/>
@@ -3712,7 +3712,7 @@
       <c r="F211" s="25"/>
       <c r="G211" s="22"/>
     </row>
-    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="21"/>
       <c r="B212" s="22"/>
       <c r="C212" s="23"/>
@@ -3721,7 +3721,7 @@
       <c r="F212" s="25"/>
       <c r="G212" s="22"/>
     </row>
-    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="21"/>
       <c r="B213" s="22"/>
       <c r="C213" s="23"/>
@@ -3730,7 +3730,7 @@
       <c r="F213" s="25"/>
       <c r="G213" s="22"/>
     </row>
-    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="21"/>
       <c r="B214" s="22"/>
       <c r="C214" s="23"/>
@@ -3739,7 +3739,7 @@
       <c r="F214" s="25"/>
       <c r="G214" s="22"/>
     </row>
-    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="21"/>
       <c r="B215" s="22"/>
       <c r="C215" s="23"/>
@@ -3748,7 +3748,7 @@
       <c r="F215" s="25"/>
       <c r="G215" s="22"/>
     </row>
-    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="21"/>
       <c r="B216" s="23"/>
       <c r="C216" s="23"/>
@@ -3757,7 +3757,7 @@
       <c r="F216" s="25"/>
       <c r="G216" s="22"/>
     </row>
-    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="21"/>
       <c r="B217" s="23"/>
       <c r="C217" s="23"/>
@@ -3766,7 +3766,7 @@
       <c r="F217" s="25"/>
       <c r="G217" s="22"/>
     </row>
-    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="21"/>
       <c r="B218" s="23"/>
       <c r="C218" s="23"/>
@@ -3775,7 +3775,7 @@
       <c r="F218" s="25"/>
       <c r="G218" s="22"/>
     </row>
-    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="21"/>
       <c r="B219" s="23"/>
       <c r="C219" s="23"/>
@@ -3784,7 +3784,7 @@
       <c r="F219" s="25"/>
       <c r="G219" s="22"/>
     </row>
-    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="21"/>
       <c r="B220" s="22"/>
       <c r="C220" s="23"/>
@@ -3793,7 +3793,7 @@
       <c r="F220" s="25"/>
       <c r="G220" s="22"/>
     </row>
-    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="21"/>
       <c r="B221" s="22"/>
       <c r="C221" s="23"/>
@@ -3802,7 +3802,7 @@
       <c r="F221" s="25"/>
       <c r="G221" s="22"/>
     </row>
-    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="21"/>
       <c r="B222" s="22"/>
       <c r="C222" s="23"/>
@@ -3811,7 +3811,7 @@
       <c r="F222" s="25"/>
       <c r="G222" s="22"/>
     </row>
-    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="21"/>
       <c r="B223" s="22"/>
       <c r="C223" s="23"/>
@@ -3820,7 +3820,7 @@
       <c r="F223" s="25"/>
       <c r="G223" s="22"/>
     </row>
-    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="21"/>
       <c r="B224" s="22"/>
       <c r="C224" s="23"/>
@@ -3829,7 +3829,7 @@
       <c r="F224" s="25"/>
       <c r="G224" s="22"/>
     </row>
-    <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="21"/>
       <c r="B225" s="22"/>
       <c r="C225" s="23"/>
@@ -3838,7 +3838,7 @@
       <c r="F225" s="25"/>
       <c r="G225" s="22"/>
     </row>
-    <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="21"/>
       <c r="B226" s="22"/>
       <c r="C226" s="23"/>
@@ -3847,7 +3847,7 @@
       <c r="F226" s="25"/>
       <c r="G226" s="22"/>
     </row>
-    <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="21"/>
       <c r="B227" s="22"/>
       <c r="C227" s="23"/>
@@ -3856,7 +3856,7 @@
       <c r="F227" s="25"/>
       <c r="G227" s="22"/>
     </row>
-    <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="21"/>
       <c r="B228" s="23"/>
       <c r="C228" s="23"/>
@@ -3865,7 +3865,7 @@
       <c r="F228" s="25"/>
       <c r="G228" s="22"/>
     </row>
-    <row r="229" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="21"/>
       <c r="B229" s="23"/>
       <c r="C229" s="23"/>
@@ -3874,7 +3874,7 @@
       <c r="F229" s="25"/>
       <c r="G229" s="22"/>
     </row>
-    <row r="230" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="21"/>
       <c r="B230" s="23"/>
       <c r="C230" s="23"/>
@@ -3883,7 +3883,7 @@
       <c r="F230" s="25"/>
       <c r="G230" s="22"/>
     </row>
-    <row r="231" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="21"/>
       <c r="B231" s="23"/>
       <c r="C231" s="23"/>
@@ -3892,7 +3892,7 @@
       <c r="F231" s="25"/>
       <c r="G231" s="22"/>
     </row>
-    <row r="232" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="21"/>
       <c r="B232" s="22"/>
       <c r="C232" s="23"/>
@@ -3901,7 +3901,7 @@
       <c r="F232" s="25"/>
       <c r="G232" s="22"/>
     </row>
-    <row r="233" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="21"/>
       <c r="B233" s="22"/>
       <c r="C233" s="23"/>
@@ -3910,7 +3910,7 @@
       <c r="F233" s="25"/>
       <c r="G233" s="22"/>
     </row>
-    <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="21"/>
       <c r="B234" s="22"/>
       <c r="C234" s="23"/>
@@ -3919,7 +3919,7 @@
       <c r="F234" s="25"/>
       <c r="G234" s="22"/>
     </row>
-    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="21"/>
       <c r="B235" s="22"/>
       <c r="C235" s="23"/>
@@ -3928,7 +3928,7 @@
       <c r="F235" s="25"/>
       <c r="G235" s="22"/>
     </row>
-    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="21"/>
       <c r="B236" s="22"/>
       <c r="C236" s="23"/>
@@ -3937,7 +3937,7 @@
       <c r="F236" s="25"/>
       <c r="G236" s="22"/>
     </row>
-    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="21"/>
       <c r="B237" s="22"/>
       <c r="C237" s="23"/>
@@ -3946,7 +3946,7 @@
       <c r="F237" s="25"/>
       <c r="G237" s="22"/>
     </row>
-    <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="21"/>
       <c r="B238" s="22"/>
       <c r="C238" s="23"/>
@@ -3955,7 +3955,7 @@
       <c r="F238" s="25"/>
       <c r="G238" s="22"/>
     </row>
-    <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="21"/>
       <c r="B239" s="22"/>
       <c r="C239" s="23"/>
@@ -3964,7 +3964,7 @@
       <c r="F239" s="25"/>
       <c r="G239" s="22"/>
     </row>
-    <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="21"/>
       <c r="B240" s="23"/>
       <c r="C240" s="23"/>
@@ -3973,7 +3973,7 @@
       <c r="F240" s="25"/>
       <c r="G240" s="22"/>
     </row>
-    <row r="241" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="21"/>
       <c r="B241" s="23"/>
       <c r="C241" s="23"/>
@@ -3982,7 +3982,7 @@
       <c r="F241" s="25"/>
       <c r="G241" s="22"/>
     </row>
-    <row r="242" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="21"/>
       <c r="B242" s="23"/>
       <c r="C242" s="23"/>
@@ -3991,7 +3991,7 @@
       <c r="F242" s="25"/>
       <c r="G242" s="22"/>
     </row>
-    <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="21"/>
       <c r="B243" s="23"/>
       <c r="C243" s="23"/>
@@ -4000,7 +4000,7 @@
       <c r="F243" s="25"/>
       <c r="G243" s="22"/>
     </row>
-    <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="21"/>
       <c r="B244" s="22"/>
       <c r="C244" s="23"/>
@@ -4009,7 +4009,7 @@
       <c r="F244" s="25"/>
       <c r="G244" s="22"/>
     </row>
-    <row r="245" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="21"/>
       <c r="B245" s="22"/>
       <c r="C245" s="23"/>
@@ -4018,7 +4018,7 @@
       <c r="F245" s="25"/>
       <c r="G245" s="22"/>
     </row>
-    <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="21"/>
       <c r="B246" s="22"/>
       <c r="C246" s="23"/>
@@ -4027,7 +4027,7 @@
       <c r="F246" s="25"/>
       <c r="G246" s="22"/>
     </row>
-    <row r="247" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="21"/>
       <c r="B247" s="22"/>
       <c r="C247" s="23"/>
@@ -4036,7 +4036,7 @@
       <c r="F247" s="25"/>
       <c r="G247" s="22"/>
     </row>
-    <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="21"/>
       <c r="B248" s="22"/>
       <c r="C248" s="23"/>
@@ -4045,7 +4045,7 @@
       <c r="F248" s="25"/>
       <c r="G248" s="22"/>
     </row>
-    <row r="249" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="21"/>
       <c r="B249" s="22"/>
       <c r="C249" s="23"/>
@@ -4054,7 +4054,7 @@
       <c r="F249" s="25"/>
       <c r="G249" s="22"/>
     </row>
-    <row r="250" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="21"/>
       <c r="B250" s="22"/>
       <c r="C250" s="23"/>
@@ -4063,7 +4063,7 @@
       <c r="F250" s="25"/>
       <c r="G250" s="22"/>
     </row>
-    <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="21"/>
       <c r="B251" s="22"/>
       <c r="C251" s="23"/>
@@ -4072,7 +4072,7 @@
       <c r="F251" s="25"/>
       <c r="G251" s="22"/>
     </row>
-    <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="21"/>
       <c r="B252" s="23"/>
       <c r="C252" s="23"/>
@@ -4081,7 +4081,7 @@
       <c r="F252" s="25"/>
       <c r="G252" s="22"/>
     </row>
-    <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="21"/>
       <c r="B253" s="23"/>
       <c r="C253" s="23"/>
@@ -4090,7 +4090,7 @@
       <c r="F253" s="25"/>
       <c r="G253" s="22"/>
     </row>
-    <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="21"/>
       <c r="B254" s="23"/>
       <c r="C254" s="23"/>
@@ -4099,7 +4099,7 @@
       <c r="F254" s="25"/>
       <c r="G254" s="22"/>
     </row>
-    <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="21"/>
       <c r="B255" s="23"/>
       <c r="C255" s="23"/>
@@ -4108,7 +4108,7 @@
       <c r="F255" s="25"/>
       <c r="G255" s="22"/>
     </row>
-    <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="21"/>
       <c r="B256" s="22"/>
       <c r="C256" s="23"/>
@@ -4117,7 +4117,7 @@
       <c r="F256" s="25"/>
       <c r="G256" s="22"/>
     </row>
-    <row r="257" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="21"/>
       <c r="B257" s="22"/>
       <c r="C257" s="23"/>
@@ -4126,7 +4126,7 @@
       <c r="F257" s="25"/>
       <c r="G257" s="22"/>
     </row>
-    <row r="258" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="21"/>
       <c r="B258" s="22"/>
       <c r="C258" s="23"/>
@@ -4135,7 +4135,7 @@
       <c r="F258" s="25"/>
       <c r="G258" s="22"/>
     </row>
-    <row r="259" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="21"/>
       <c r="B259" s="22"/>
       <c r="C259" s="23"/>
@@ -4144,7 +4144,7 @@
       <c r="F259" s="25"/>
       <c r="G259" s="22"/>
     </row>
-    <row r="260" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="21"/>
       <c r="B260" s="22"/>
       <c r="C260" s="23"/>
@@ -4153,7 +4153,7 @@
       <c r="F260" s="25"/>
       <c r="G260" s="22"/>
     </row>
-    <row r="261" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="21"/>
       <c r="B261" s="22"/>
       <c r="C261" s="23"/>
@@ -4162,7 +4162,7 @@
       <c r="F261" s="25"/>
       <c r="G261" s="22"/>
     </row>
-    <row r="262" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="21"/>
       <c r="B262" s="22"/>
       <c r="C262" s="23"/>
@@ -4171,7 +4171,7 @@
       <c r="F262" s="25"/>
       <c r="G262" s="22"/>
     </row>
-    <row r="263" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="21"/>
       <c r="B263" s="22"/>
       <c r="C263" s="23"/>
@@ -4180,7 +4180,7 @@
       <c r="F263" s="25"/>
       <c r="G263" s="22"/>
     </row>
-    <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="21"/>
       <c r="B264" s="23"/>
       <c r="C264" s="23"/>
@@ -4189,7 +4189,7 @@
       <c r="F264" s="25"/>
       <c r="G264" s="22"/>
     </row>
-    <row r="265" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="21"/>
       <c r="B265" s="23"/>
       <c r="C265" s="23"/>
@@ -4198,7 +4198,7 @@
       <c r="F265" s="25"/>
       <c r="G265" s="22"/>
     </row>
-    <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="21"/>
       <c r="B266" s="23"/>
       <c r="C266" s="23"/>
@@ -4207,7 +4207,7 @@
       <c r="F266" s="25"/>
       <c r="G266" s="22"/>
     </row>
-    <row r="267" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="21"/>
       <c r="B267" s="23"/>
       <c r="C267" s="23"/>
@@ -4216,7 +4216,7 @@
       <c r="F267" s="25"/>
       <c r="G267" s="22"/>
     </row>
-    <row r="268" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="21"/>
       <c r="B268" s="22"/>
       <c r="C268" s="23"/>
@@ -4225,7 +4225,7 @@
       <c r="F268" s="25"/>
       <c r="G268" s="22"/>
     </row>
-    <row r="269" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="21"/>
       <c r="B269" s="22"/>
       <c r="C269" s="23"/>
@@ -4234,7 +4234,7 @@
       <c r="F269" s="25"/>
       <c r="G269" s="22"/>
     </row>
-    <row r="270" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="21"/>
       <c r="B270" s="22"/>
       <c r="C270" s="23"/>
@@ -4243,7 +4243,7 @@
       <c r="F270" s="25"/>
       <c r="G270" s="22"/>
     </row>
-    <row r="271" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="21"/>
       <c r="B271" s="22"/>
       <c r="C271" s="23"/>
@@ -4252,7 +4252,7 @@
       <c r="F271" s="25"/>
       <c r="G271" s="22"/>
     </row>
-    <row r="272" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="21"/>
       <c r="B272" s="22"/>
       <c r="C272" s="23"/>
@@ -4261,7 +4261,7 @@
       <c r="F272" s="25"/>
       <c r="G272" s="22"/>
     </row>
-    <row r="273" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="21"/>
       <c r="B273" s="22"/>
       <c r="C273" s="23"/>
@@ -4270,7 +4270,7 @@
       <c r="F273" s="25"/>
       <c r="G273" s="22"/>
     </row>
-    <row r="274" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="21"/>
       <c r="B274" s="22"/>
       <c r="C274" s="23"/>
@@ -4279,7 +4279,7 @@
       <c r="F274" s="25"/>
       <c r="G274" s="22"/>
     </row>
-    <row r="275" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="21"/>
       <c r="B275" s="22"/>
       <c r="C275" s="23"/>
@@ -4288,7 +4288,7 @@
       <c r="F275" s="25"/>
       <c r="G275" s="22"/>
     </row>
-    <row r="276" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="21"/>
       <c r="B276" s="23"/>
       <c r="C276" s="23"/>
@@ -4297,7 +4297,7 @@
       <c r="F276" s="25"/>
       <c r="G276" s="22"/>
     </row>
-    <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="21"/>
       <c r="B277" s="23"/>
       <c r="C277" s="23"/>
@@ -4306,7 +4306,7 @@
       <c r="F277" s="25"/>
       <c r="G277" s="22"/>
     </row>
-    <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="21"/>
       <c r="B278" s="23"/>
       <c r="C278" s="23"/>
@@ -4315,7 +4315,7 @@
       <c r="F278" s="25"/>
       <c r="G278" s="22"/>
     </row>
-    <row r="279" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="21"/>
       <c r="B279" s="23"/>
       <c r="C279" s="23"/>
@@ -4324,7 +4324,7 @@
       <c r="F279" s="25"/>
       <c r="G279" s="22"/>
     </row>
-    <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="21"/>
       <c r="B280" s="22"/>
       <c r="C280" s="23"/>
@@ -4333,7 +4333,7 @@
       <c r="F280" s="25"/>
       <c r="G280" s="22"/>
     </row>
-    <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="21"/>
       <c r="B281" s="22"/>
       <c r="C281" s="23"/>
@@ -4342,7 +4342,7 @@
       <c r="F281" s="25"/>
       <c r="G281" s="22"/>
     </row>
-    <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="21"/>
       <c r="B282" s="22"/>
       <c r="C282" s="23"/>
@@ -4351,7 +4351,7 @@
       <c r="F282" s="25"/>
       <c r="G282" s="22"/>
     </row>
-    <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="21"/>
       <c r="B283" s="22"/>
       <c r="C283" s="23"/>
@@ -4360,7 +4360,7 @@
       <c r="F283" s="25"/>
       <c r="G283" s="22"/>
     </row>
-    <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="21"/>
       <c r="B284" s="22"/>
       <c r="C284" s="23"/>
@@ -4369,7 +4369,7 @@
       <c r="F284" s="25"/>
       <c r="G284" s="22"/>
     </row>
-    <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="21"/>
       <c r="B285" s="22"/>
       <c r="C285" s="23"/>
@@ -4378,7 +4378,7 @@
       <c r="F285" s="25"/>
       <c r="G285" s="22"/>
     </row>
-    <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="21"/>
       <c r="B286" s="22"/>
       <c r="C286" s="23"/>
@@ -4387,7 +4387,7 @@
       <c r="F286" s="25"/>
       <c r="G286" s="22"/>
     </row>
-    <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="21"/>
       <c r="B287" s="22"/>
       <c r="C287" s="23"/>
@@ -4396,7 +4396,7 @@
       <c r="F287" s="25"/>
       <c r="G287" s="22"/>
     </row>
-    <row r="288" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="21"/>
       <c r="B288" s="23"/>
       <c r="C288" s="23"/>
@@ -4405,7 +4405,7 @@
       <c r="F288" s="25"/>
       <c r="G288" s="22"/>
     </row>
-    <row r="289" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="21"/>
       <c r="B289" s="23"/>
       <c r="C289" s="23"/>
@@ -4414,7 +4414,7 @@
       <c r="F289" s="25"/>
       <c r="G289" s="22"/>
     </row>
-    <row r="290" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="21"/>
       <c r="B290" s="23"/>
       <c r="C290" s="23"/>
@@ -4423,7 +4423,7 @@
       <c r="F290" s="25"/>
       <c r="G290" s="22"/>
     </row>
-    <row r="291" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="21"/>
       <c r="B291" s="23"/>
       <c r="C291" s="23"/>
@@ -4432,7 +4432,7 @@
       <c r="F291" s="25"/>
       <c r="G291" s="22"/>
     </row>
-    <row r="292" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="21"/>
       <c r="B292" s="22"/>
       <c r="C292" s="23"/>
@@ -4441,7 +4441,7 @@
       <c r="F292" s="25"/>
       <c r="G292" s="22"/>
     </row>
-    <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="21"/>
       <c r="B293" s="22"/>
       <c r="C293" s="23"/>
@@ -4450,7 +4450,7 @@
       <c r="F293" s="25"/>
       <c r="G293" s="22"/>
     </row>
-    <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="21"/>
       <c r="B294" s="22"/>
       <c r="C294" s="23"/>
@@ -4459,7 +4459,7 @@
       <c r="F294" s="25"/>
       <c r="G294" s="22"/>
     </row>
-    <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="21"/>
       <c r="B295" s="22"/>
       <c r="C295" s="23"/>
@@ -4468,7 +4468,7 @@
       <c r="F295" s="25"/>
       <c r="G295" s="22"/>
     </row>
-    <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="21"/>
       <c r="B296" s="22"/>
       <c r="C296" s="23"/>
@@ -4477,7 +4477,7 @@
       <c r="F296" s="25"/>
       <c r="G296" s="22"/>
     </row>
-    <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="21"/>
       <c r="B297" s="22"/>
       <c r="C297" s="23"/>
@@ -4486,7 +4486,7 @@
       <c r="F297" s="25"/>
       <c r="G297" s="22"/>
     </row>
-    <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="21"/>
       <c r="B298" s="22"/>
       <c r="C298" s="23"/>
@@ -4495,7 +4495,7 @@
       <c r="F298" s="25"/>
       <c r="G298" s="22"/>
     </row>
-    <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="21"/>
       <c r="B299" s="22"/>
       <c r="C299" s="23"/>
@@ -4504,7 +4504,7 @@
       <c r="F299" s="25"/>
       <c r="G299" s="22"/>
     </row>
-    <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="21"/>
       <c r="B300" s="23"/>
       <c r="C300" s="23"/>
@@ -4513,706 +4513,6 @@
       <c r="F300" s="25"/>
       <c r="G300" s="26"/>
     </row>
-    <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" sqref="F2:F13" xr:uid="{00000000-0002-0000-0000-000000000000}">
